--- a/data/COVID_ALL_G1.xlsx
+++ b/data/COVID_ALL_G1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CMU\Class Resources\2020 Senior\Fall\36490 undergraduate research\PHIGHT_COVID_Sources\coviddiary_rawsourcedata_public_08052020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annikaavery/Documents/LakdawalaLab/COVID_Diary/coviddiary_sourcedata/coviddiary_rawsourcedata_public_08052020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE894FB-9886-4F93-A417-FA9D1832A425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523144DE-F6E5-D34D-AD78-D75B75C15941}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="460" windowWidth="19500" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -998,7 +998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1025,6 +1025,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1331,22 +1332,22 @@
   <dimension ref="A1:N690"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H525" sqref="H525"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" style="8"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="15.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="8"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2314,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2578,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -3150,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -3194,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3238,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3942,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -4294,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -4470,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -4690,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4778,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -4822,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -4954,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -4998,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -5042,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -5174,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -5306,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -5790,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>95</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>95</v>
       </c>
@@ -5922,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -5966,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>95</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>95</v>
       </c>
@@ -6054,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>95</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>95</v>
       </c>
@@ -6142,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>95</v>
       </c>
@@ -6186,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>95</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>95</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>95</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>101</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>101</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>101</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>101</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>101</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>101</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>101</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>101</v>
       </c>
@@ -6670,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>101</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>101</v>
       </c>
@@ -6758,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>101</v>
       </c>
@@ -6802,7 +6803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>106</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>106</v>
       </c>
@@ -6890,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>106</v>
       </c>
@@ -6934,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>106</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>106</v>
       </c>
@@ -7022,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>106</v>
       </c>
@@ -7066,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>106</v>
       </c>
@@ -7110,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>106</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>106</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>106</v>
       </c>
@@ -7242,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>106</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>36</v>
       </c>
       <c r="I135" s="6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J135">
         <v>294478</v>
@@ -7286,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>110</v>
       </c>
@@ -7330,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>110</v>
       </c>
@@ -7374,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>110</v>
       </c>
@@ -7418,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>110</v>
       </c>
@@ -7462,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>110</v>
       </c>
@@ -7506,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>110</v>
       </c>
@@ -7550,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>110</v>
       </c>
@@ -7594,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>110</v>
       </c>
@@ -7638,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>110</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>110</v>
       </c>
@@ -7726,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>110</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>110</v>
       </c>
@@ -7814,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>110</v>
       </c>
@@ -7858,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>110</v>
       </c>
@@ -7902,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>110</v>
       </c>
@@ -7946,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>110</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>113</v>
       </c>
@@ -8034,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>113</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>113</v>
       </c>
@@ -8122,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>113</v>
       </c>
@@ -8166,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>113</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>113</v>
       </c>
@@ -8254,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>113</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>113</v>
       </c>
@@ -8342,7 +8343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>116</v>
       </c>
@@ -8386,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -8430,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>116</v>
       </c>
@@ -8474,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>116</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>116</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>116</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>116</v>
       </c>
@@ -8650,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>116</v>
       </c>
@@ -8694,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>116</v>
       </c>
@@ -8738,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>116</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>116</v>
       </c>
@@ -8826,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>116</v>
       </c>
@@ -8870,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>116</v>
       </c>
@@ -8914,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>116</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>122</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>122</v>
       </c>
@@ -9046,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>122</v>
       </c>
@@ -9090,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>122</v>
       </c>
@@ -9134,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>122</v>
       </c>
@@ -9178,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>122</v>
       </c>
@@ -9222,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>122</v>
       </c>
@@ -9266,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>122</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>122</v>
       </c>
@@ -9354,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>122</v>
       </c>
@@ -9398,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>122</v>
       </c>
@@ -9442,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>126</v>
       </c>
@@ -9486,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>126</v>
       </c>
@@ -9530,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>126</v>
       </c>
@@ -9574,7 +9575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>126</v>
       </c>
@@ -9618,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -9662,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>126</v>
       </c>
@@ -9706,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>126</v>
       </c>
@@ -9750,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>126</v>
       </c>
@@ -9794,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>126</v>
       </c>
@@ -9838,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>126</v>
       </c>
@@ -9882,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>126</v>
       </c>
@@ -9926,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>126</v>
       </c>
@@ -9970,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>126</v>
       </c>
@@ -10014,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>126</v>
       </c>
@@ -10058,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>126</v>
       </c>
@@ -10102,7 +10103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>129</v>
       </c>
@@ -10146,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>129</v>
       </c>
@@ -10190,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>129</v>
       </c>
@@ -10234,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>129</v>
       </c>
@@ -10278,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>129</v>
       </c>
@@ -10322,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>129</v>
       </c>
@@ -10366,7 +10367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>129</v>
       </c>
@@ -10410,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>129</v>
       </c>
@@ -10454,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>129</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>129</v>
       </c>
@@ -10542,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>129</v>
       </c>
@@ -10586,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>129</v>
       </c>
@@ -10630,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>129</v>
       </c>
@@ -10674,7 +10675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>129</v>
       </c>
@@ -10718,7 +10719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>129</v>
       </c>
@@ -10762,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>135</v>
       </c>
@@ -10806,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>135</v>
       </c>
@@ -10850,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>135</v>
       </c>
@@ -10894,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>135</v>
       </c>
@@ -10938,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>135</v>
       </c>
@@ -10982,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>135</v>
       </c>
@@ -11026,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>135</v>
       </c>
@@ -11070,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>135</v>
       </c>
@@ -11114,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>135</v>
       </c>
@@ -11158,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>135</v>
       </c>
@@ -11202,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>135</v>
       </c>
@@ -11246,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>135</v>
       </c>
@@ -11290,7 +11291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>135</v>
       </c>
@@ -11334,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>138</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>138</v>
       </c>
@@ -11422,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>138</v>
       </c>
@@ -11466,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>138</v>
       </c>
@@ -11510,7 +11511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>138</v>
       </c>
@@ -11554,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>138</v>
       </c>
@@ -11598,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>138</v>
       </c>
@@ -11642,7 +11643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>138</v>
       </c>
@@ -11686,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>138</v>
       </c>
@@ -11730,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>138</v>
       </c>
@@ -11774,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>138</v>
       </c>
@@ -11818,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>138</v>
       </c>
@@ -11862,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>138</v>
       </c>
@@ -11906,7 +11907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>138</v>
       </c>
@@ -11950,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>138</v>
       </c>
@@ -11994,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>138</v>
       </c>
@@ -12038,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>138</v>
       </c>
@@ -12082,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>138</v>
       </c>
@@ -12126,7 +12127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>138</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>138</v>
       </c>
@@ -12214,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>138</v>
       </c>
@@ -12258,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>146</v>
       </c>
@@ -12302,7 +12303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>146</v>
       </c>
@@ -12346,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>146</v>
       </c>
@@ -12390,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>146</v>
       </c>
@@ -12434,7 +12435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>146</v>
       </c>
@@ -12478,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>146</v>
       </c>
@@ -12522,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>146</v>
       </c>
@@ -12566,7 +12567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>146</v>
       </c>
@@ -12610,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>146</v>
       </c>
@@ -12654,7 +12655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>146</v>
       </c>
@@ -12698,7 +12699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>146</v>
       </c>
@@ -12742,7 +12743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>146</v>
       </c>
@@ -12786,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>146</v>
       </c>
@@ -12830,7 +12831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>148</v>
       </c>
@@ -12874,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>148</v>
       </c>
@@ -12918,7 +12919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>148</v>
       </c>
@@ -12962,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>148</v>
       </c>
@@ -13006,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>148</v>
       </c>
@@ -13050,7 +13051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>148</v>
       </c>
@@ -13094,7 +13095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>148</v>
       </c>
@@ -13138,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>148</v>
       </c>
@@ -13182,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>148</v>
       </c>
@@ -13226,7 +13227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>148</v>
       </c>
@@ -13270,7 +13271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>148</v>
       </c>
@@ -13314,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>148</v>
       </c>
@@ -13358,7 +13359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>148</v>
       </c>
@@ -13402,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>148</v>
       </c>
@@ -13446,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>148</v>
       </c>
@@ -13490,7 +13491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>151</v>
       </c>
@@ -13534,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>151</v>
       </c>
@@ -13578,7 +13579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>151</v>
       </c>
@@ -13622,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>151</v>
       </c>
@@ -13666,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>151</v>
       </c>
@@ -13710,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>151</v>
       </c>
@@ -13754,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>151</v>
       </c>
@@ -13798,7 +13799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>151</v>
       </c>
@@ -13842,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>151</v>
       </c>
@@ -13886,7 +13887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>151</v>
       </c>
@@ -13930,7 +13931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>151</v>
       </c>
@@ -13974,7 +13975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>151</v>
       </c>
@@ -14018,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>151</v>
       </c>
@@ -14062,7 +14063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>154</v>
       </c>
@@ -14106,7 +14107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>154</v>
       </c>
@@ -14150,7 +14151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>154</v>
       </c>
@@ -14194,7 +14195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>154</v>
       </c>
@@ -14238,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>154</v>
       </c>
@@ -14282,7 +14283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>154</v>
       </c>
@@ -14326,7 +14327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>154</v>
       </c>
@@ -14370,7 +14371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>154</v>
       </c>
@@ -14414,7 +14415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>154</v>
       </c>
@@ -14458,7 +14459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>154</v>
       </c>
@@ -14502,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>154</v>
       </c>
@@ -14546,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>154</v>
       </c>
@@ -14590,7 +14591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>154</v>
       </c>
@@ -14634,7 +14635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>157</v>
       </c>
@@ -14678,7 +14679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>157</v>
       </c>
@@ -14722,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>157</v>
       </c>
@@ -14766,7 +14767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>157</v>
       </c>
@@ -14810,7 +14811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>157</v>
       </c>
@@ -14854,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>157</v>
       </c>
@@ -14898,7 +14899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>157</v>
       </c>
@@ -14942,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>157</v>
       </c>
@@ -14986,7 +14987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>157</v>
       </c>
@@ -15030,7 +15031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>157</v>
       </c>
@@ -15074,7 +15075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>157</v>
       </c>
@@ -15118,7 +15119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>157</v>
       </c>
@@ -15162,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>157</v>
       </c>
@@ -15206,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>157</v>
       </c>
@@ -15250,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>157</v>
       </c>
@@ -15294,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>157</v>
       </c>
@@ -15338,7 +15339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>157</v>
       </c>
@@ -15382,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>157</v>
       </c>
@@ -15426,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>162</v>
       </c>
@@ -15470,7 +15471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>162</v>
       </c>
@@ -15514,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>162</v>
       </c>
@@ -15558,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>162</v>
       </c>
@@ -15602,7 +15603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>162</v>
       </c>
@@ -15646,7 +15647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>162</v>
       </c>
@@ -15690,7 +15691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>162</v>
       </c>
@@ -15734,7 +15735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>162</v>
       </c>
@@ -15778,7 +15779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>162</v>
       </c>
@@ -15822,7 +15823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>162</v>
       </c>
@@ -15866,7 +15867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>162</v>
       </c>
@@ -15910,7 +15911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>162</v>
       </c>
@@ -15954,7 +15955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>162</v>
       </c>
@@ -15998,7 +15999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>162</v>
       </c>
@@ -16042,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>162</v>
       </c>
@@ -16086,7 +16087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>166</v>
       </c>
@@ -16130,7 +16131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>166</v>
       </c>
@@ -16174,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>166</v>
       </c>
@@ -16218,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>166</v>
       </c>
@@ -16262,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>166</v>
       </c>
@@ -16306,7 +16307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>166</v>
       </c>
@@ -16350,7 +16351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>166</v>
       </c>
@@ -16394,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>166</v>
       </c>
@@ -16438,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>166</v>
       </c>
@@ -16482,7 +16483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>166</v>
       </c>
@@ -16526,7 +16527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>166</v>
       </c>
@@ -16570,7 +16571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>166</v>
       </c>
@@ -16614,7 +16615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>166</v>
       </c>
@@ -16658,7 +16659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>166</v>
       </c>
@@ -16702,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>166</v>
       </c>
@@ -16746,7 +16747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>166</v>
       </c>
@@ -16790,7 +16791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>166</v>
       </c>
@@ -16834,7 +16835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>166</v>
       </c>
@@ -16878,7 +16879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>166</v>
       </c>
@@ -16922,7 +16923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>171</v>
       </c>
@@ -16966,7 +16967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>171</v>
       </c>
@@ -17010,7 +17011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>171</v>
       </c>
@@ -17054,7 +17055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>171</v>
       </c>
@@ -17098,7 +17099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>171</v>
       </c>
@@ -17142,7 +17143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>171</v>
       </c>
@@ -17186,7 +17187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>171</v>
       </c>
@@ -17230,7 +17231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>171</v>
       </c>
@@ -17274,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>171</v>
       </c>
@@ -17318,7 +17319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>173</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>173</v>
       </c>
@@ -17406,7 +17407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>173</v>
       </c>
@@ -17450,7 +17451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>173</v>
       </c>
@@ -17494,7 +17495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>173</v>
       </c>
@@ -17538,7 +17539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>173</v>
       </c>
@@ -17582,7 +17583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>173</v>
       </c>
@@ -17626,7 +17627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>173</v>
       </c>
@@ -17670,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>173</v>
       </c>
@@ -17714,7 +17715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>173</v>
       </c>
@@ -17758,7 +17759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>173</v>
       </c>
@@ -17802,7 +17803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>173</v>
       </c>
@@ -17846,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>173</v>
       </c>
@@ -17890,7 +17891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>176</v>
       </c>
@@ -17934,7 +17935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>176</v>
       </c>
@@ -17978,7 +17979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>176</v>
       </c>
@@ -18022,7 +18023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>176</v>
       </c>
@@ -18066,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>176</v>
       </c>
@@ -18110,7 +18111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>176</v>
       </c>
@@ -18154,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>176</v>
       </c>
@@ -18198,7 +18199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>176</v>
       </c>
@@ -18242,7 +18243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>176</v>
       </c>
@@ -18286,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>176</v>
       </c>
@@ -18330,7 +18331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>176</v>
       </c>
@@ -18374,7 +18375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>176</v>
       </c>
@@ -18418,7 +18419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>176</v>
       </c>
@@ -18462,7 +18463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>179</v>
       </c>
@@ -18506,7 +18507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>179</v>
       </c>
@@ -18550,7 +18551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>179</v>
       </c>
@@ -18594,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>179</v>
       </c>
@@ -18638,7 +18639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>179</v>
       </c>
@@ -18682,7 +18683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>179</v>
       </c>
@@ -18726,7 +18727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>179</v>
       </c>
@@ -18770,7 +18771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>179</v>
       </c>
@@ -18814,7 +18815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>179</v>
       </c>
@@ -18858,7 +18859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>179</v>
       </c>
@@ -18902,7 +18903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>179</v>
       </c>
@@ -18946,7 +18947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>183</v>
       </c>
@@ -18990,7 +18991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>183</v>
       </c>
@@ -19034,7 +19035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>183</v>
       </c>
@@ -19078,7 +19079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>183</v>
       </c>
@@ -19122,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>183</v>
       </c>
@@ -19166,7 +19167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>183</v>
       </c>
@@ -19210,7 +19211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>183</v>
       </c>
@@ -19254,7 +19255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>183</v>
       </c>
@@ -19298,7 +19299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>183</v>
       </c>
@@ -19342,7 +19343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>183</v>
       </c>
@@ -19386,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>183</v>
       </c>
@@ -19430,7 +19431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>186</v>
       </c>
@@ -19474,7 +19475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>186</v>
       </c>
@@ -19518,7 +19519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>186</v>
       </c>
@@ -19562,7 +19563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>186</v>
       </c>
@@ -19606,7 +19607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>186</v>
       </c>
@@ -19650,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>186</v>
       </c>
@@ -19694,7 +19695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>186</v>
       </c>
@@ -19738,7 +19739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>186</v>
       </c>
@@ -19782,7 +19783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>186</v>
       </c>
@@ -19826,7 +19827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>186</v>
       </c>
@@ -19870,7 +19871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>186</v>
       </c>
@@ -19914,7 +19915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>186</v>
       </c>
@@ -19958,7 +19959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>186</v>
       </c>
@@ -20002,7 +20003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>186</v>
       </c>
@@ -20046,7 +20047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>186</v>
       </c>
@@ -20090,7 +20091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>186</v>
       </c>
@@ -20134,7 +20135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>186</v>
       </c>
@@ -20178,7 +20179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>191</v>
       </c>
@@ -20222,7 +20223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>191</v>
       </c>
@@ -20266,7 +20267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>191</v>
       </c>
@@ -20310,7 +20311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>191</v>
       </c>
@@ -20354,7 +20355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>191</v>
       </c>
@@ -20398,7 +20399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>191</v>
       </c>
@@ -20442,7 +20443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>191</v>
       </c>
@@ -20486,7 +20487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>191</v>
       </c>
@@ -20530,7 +20531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>191</v>
       </c>
@@ -20574,7 +20575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>191</v>
       </c>
@@ -20618,7 +20619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>191</v>
       </c>
@@ -20662,7 +20663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>191</v>
       </c>
@@ -20706,7 +20707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>191</v>
       </c>
@@ -20750,7 +20751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>191</v>
       </c>
@@ -20794,7 +20795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>191</v>
       </c>
@@ -20838,7 +20839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>193</v>
       </c>
@@ -20882,7 +20883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>193</v>
       </c>
@@ -20926,7 +20927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>193</v>
       </c>
@@ -20970,7 +20971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>193</v>
       </c>
@@ -21014,7 +21015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>193</v>
       </c>
@@ -21058,7 +21059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>193</v>
       </c>
@@ -21102,7 +21103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>193</v>
       </c>
@@ -21146,7 +21147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>193</v>
       </c>
@@ -21190,7 +21191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>193</v>
       </c>
@@ -21234,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>193</v>
       </c>
@@ -21278,7 +21279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>193</v>
       </c>
@@ -21322,7 +21323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>193</v>
       </c>
@@ -21366,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>193</v>
       </c>
@@ -21410,7 +21411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>193</v>
       </c>
@@ -21454,7 +21455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>193</v>
       </c>
@@ -21498,7 +21499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>193</v>
       </c>
@@ -21542,7 +21543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>193</v>
       </c>
@@ -21586,7 +21587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>193</v>
       </c>
@@ -21630,7 +21631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>193</v>
       </c>
@@ -21674,7 +21675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>198</v>
       </c>
@@ -21718,7 +21719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>198</v>
       </c>
@@ -21762,7 +21763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>198</v>
       </c>
@@ -21806,7 +21807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>198</v>
       </c>
@@ -21850,7 +21851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>198</v>
       </c>
@@ -21894,7 +21895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>198</v>
       </c>
@@ -21938,7 +21939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>198</v>
       </c>
@@ -21982,7 +21983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>198</v>
       </c>
@@ -22026,7 +22027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>198</v>
       </c>
@@ -22070,7 +22071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>198</v>
       </c>
@@ -22114,7 +22115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>201</v>
       </c>
@@ -22158,7 +22159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>201</v>
       </c>
@@ -22202,7 +22203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>201</v>
       </c>
@@ -22246,7 +22247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>201</v>
       </c>
@@ -22290,7 +22291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>203</v>
       </c>
@@ -22334,7 +22335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>203</v>
       </c>
@@ -22378,7 +22379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>203</v>
       </c>
@@ -22422,7 +22423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>203</v>
       </c>
@@ -22466,7 +22467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>203</v>
       </c>
@@ -22510,7 +22511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>203</v>
       </c>
@@ -22554,7 +22555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>203</v>
       </c>
@@ -22598,7 +22599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>203</v>
       </c>
@@ -22642,7 +22643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>203</v>
       </c>
@@ -22686,7 +22687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>203</v>
       </c>
@@ -22730,7 +22731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>203</v>
       </c>
@@ -22774,7 +22775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>203</v>
       </c>
@@ -22818,7 +22819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>203</v>
       </c>
@@ -22862,7 +22863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>203</v>
       </c>
@@ -22906,7 +22907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>205</v>
       </c>
@@ -22950,7 +22951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>205</v>
       </c>
@@ -22994,7 +22995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>205</v>
       </c>
@@ -23038,7 +23039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>205</v>
       </c>
@@ -23082,7 +23083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>205</v>
       </c>
@@ -23126,7 +23127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>205</v>
       </c>
@@ -23170,7 +23171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>205</v>
       </c>
@@ -23211,7 +23212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>205</v>
       </c>
@@ -23255,7 +23256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>205</v>
       </c>
@@ -23299,7 +23300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>207</v>
       </c>
@@ -23343,7 +23344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>207</v>
       </c>
@@ -23387,7 +23388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>207</v>
       </c>
@@ -23431,7 +23432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>207</v>
       </c>
@@ -23475,7 +23476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>207</v>
       </c>
@@ -23519,7 +23520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>207</v>
       </c>
@@ -23563,7 +23564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>207</v>
       </c>
@@ -23607,7 +23608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>207</v>
       </c>
@@ -23651,7 +23652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>207</v>
       </c>
@@ -23695,7 +23696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>207</v>
       </c>
@@ -23739,7 +23740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>207</v>
       </c>
@@ -23783,7 +23784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>207</v>
       </c>
@@ -23827,7 +23828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>207</v>
       </c>
@@ -23871,7 +23872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>209</v>
       </c>
@@ -23915,7 +23916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>209</v>
       </c>
@@ -23959,7 +23960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>209</v>
       </c>
@@ -24003,7 +24004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>209</v>
       </c>
@@ -24047,7 +24048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>209</v>
       </c>
@@ -24091,7 +24092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>209</v>
       </c>
@@ -24135,7 +24136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>209</v>
       </c>
@@ -24179,7 +24180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>209</v>
       </c>
@@ -24223,7 +24224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>209</v>
       </c>
@@ -24267,7 +24268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>209</v>
       </c>
@@ -24311,7 +24312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>209</v>
       </c>
@@ -24355,7 +24356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>209</v>
       </c>
@@ -24399,7 +24400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>209</v>
       </c>
@@ -24443,7 +24444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>209</v>
       </c>
@@ -24487,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>209</v>
       </c>
@@ -24531,7 +24532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>209</v>
       </c>
@@ -24575,7 +24576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>211</v>
       </c>
@@ -24600,8 +24601,8 @@
       <c r="H529" t="s">
         <v>19</v>
       </c>
-      <c r="I529" s="7">
-        <v>2</v>
+      <c r="I529" s="14">
+        <v>3.45</v>
       </c>
       <c r="J529">
         <v>1219835</v>
@@ -24619,7 +24620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>211</v>
       </c>
@@ -24663,7 +24664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>211</v>
       </c>
@@ -24707,7 +24708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>211</v>
       </c>
@@ -24751,7 +24752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>211</v>
       </c>
@@ -24795,7 +24796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>211</v>
       </c>
@@ -24839,7 +24840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>211</v>
       </c>
@@ -24883,7 +24884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>211</v>
       </c>
@@ -24927,7 +24928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>211</v>
       </c>
@@ -24971,7 +24972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>211</v>
       </c>
@@ -25015,7 +25016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>211</v>
       </c>
@@ -25059,7 +25060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>211</v>
       </c>
@@ -25103,7 +25104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>211</v>
       </c>
@@ -25147,7 +25148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>211</v>
       </c>
@@ -25191,7 +25192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>215</v>
       </c>
@@ -25235,7 +25236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>215</v>
       </c>
@@ -25279,7 +25280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>215</v>
       </c>
@@ -25323,7 +25324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>215</v>
       </c>
@@ -25367,7 +25368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>215</v>
       </c>
@@ -25411,7 +25412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>215</v>
       </c>
@@ -25455,7 +25456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>215</v>
       </c>
@@ -25499,7 +25500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>215</v>
       </c>
@@ -25543,7 +25544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>215</v>
       </c>
@@ -25587,7 +25588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>215</v>
       </c>
@@ -25631,7 +25632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>215</v>
       </c>
@@ -25675,7 +25676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>215</v>
       </c>
@@ -25719,7 +25720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>215</v>
       </c>
@@ -25763,7 +25764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>220</v>
       </c>
@@ -25807,7 +25808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>220</v>
       </c>
@@ -25851,7 +25852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>222</v>
       </c>
@@ -25895,7 +25896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>222</v>
       </c>
@@ -25939,7 +25940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>222</v>
       </c>
@@ -25983,7 +25984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>222</v>
       </c>
@@ -26027,7 +26028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>222</v>
       </c>
@@ -26071,7 +26072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>222</v>
       </c>
@@ -26115,7 +26116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>222</v>
       </c>
@@ -26159,7 +26160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>222</v>
       </c>
@@ -26203,7 +26204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>222</v>
       </c>
@@ -26247,7 +26248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>222</v>
       </c>
@@ -26291,7 +26292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>222</v>
       </c>
@@ -26335,7 +26336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>222</v>
       </c>
@@ -26379,7 +26380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>224</v>
       </c>
@@ -26423,7 +26424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>224</v>
       </c>
@@ -26467,7 +26468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>224</v>
       </c>
@@ -26511,7 +26512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>224</v>
       </c>
@@ -26555,7 +26556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>224</v>
       </c>
@@ -26599,7 +26600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>224</v>
       </c>
@@ -26643,7 +26644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>224</v>
       </c>
@@ -26687,7 +26688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>224</v>
       </c>
@@ -26731,7 +26732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>224</v>
       </c>
@@ -26775,7 +26776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>224</v>
       </c>
@@ -26819,7 +26820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>224</v>
       </c>
@@ -26863,7 +26864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>224</v>
       </c>
@@ -26907,7 +26908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>224</v>
       </c>
@@ -26951,7 +26952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>224</v>
       </c>
@@ -26995,7 +26996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>224</v>
       </c>
@@ -27039,7 +27040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>224</v>
       </c>
@@ -27083,7 +27084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>224</v>
       </c>
@@ -27127,7 +27128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>224</v>
       </c>
@@ -27171,7 +27172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>228</v>
       </c>
@@ -27215,7 +27216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>228</v>
       </c>
@@ -27259,7 +27260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>228</v>
       </c>
@@ -27303,7 +27304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>228</v>
       </c>
@@ -27347,7 +27348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>228</v>
       </c>
@@ -27391,7 +27392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>228</v>
       </c>
@@ -27435,7 +27436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>228</v>
       </c>
@@ -27479,7 +27480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>228</v>
       </c>
@@ -27523,7 +27524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>228</v>
       </c>
@@ -27567,7 +27568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>228</v>
       </c>
@@ -27611,7 +27612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>230</v>
       </c>
@@ -27655,7 +27656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>230</v>
       </c>
@@ -27699,7 +27700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>230</v>
       </c>
@@ -27743,7 +27744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>230</v>
       </c>
@@ -27787,7 +27788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>230</v>
       </c>
@@ -27831,7 +27832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>230</v>
       </c>
@@ -27875,7 +27876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>230</v>
       </c>
@@ -27919,7 +27920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>230</v>
       </c>
@@ -27963,7 +27964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>230</v>
       </c>
@@ -28007,7 +28008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>230</v>
       </c>
@@ -28051,7 +28052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>230</v>
       </c>
@@ -28095,7 +28096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>230</v>
       </c>
@@ -28139,7 +28140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>230</v>
       </c>
@@ -28183,7 +28184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>230</v>
       </c>
@@ -28227,7 +28228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>230</v>
       </c>
@@ -28271,7 +28272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>230</v>
       </c>
@@ -28315,7 +28316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>230</v>
       </c>
@@ -28359,7 +28360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>230</v>
       </c>
@@ -28403,7 +28404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>233</v>
       </c>
@@ -28447,7 +28448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>233</v>
       </c>
@@ -28491,7 +28492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>233</v>
       </c>
@@ -28535,7 +28536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>233</v>
       </c>
@@ -28579,7 +28580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>233</v>
       </c>
@@ -28623,7 +28624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>233</v>
       </c>
@@ -28667,7 +28668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>233</v>
       </c>
@@ -28711,7 +28712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>233</v>
       </c>
@@ -28755,7 +28756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>233</v>
       </c>
@@ -28799,7 +28800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>233</v>
       </c>
@@ -28843,7 +28844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>233</v>
       </c>
@@ -28887,7 +28888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>233</v>
       </c>
@@ -28931,7 +28932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>233</v>
       </c>
@@ -28975,7 +28976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>235</v>
       </c>
@@ -29019,7 +29020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>235</v>
       </c>
@@ -29063,7 +29064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>235</v>
       </c>
@@ -29107,7 +29108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>235</v>
       </c>
@@ -29151,7 +29152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>235</v>
       </c>
@@ -29195,7 +29196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>235</v>
       </c>
@@ -29239,7 +29240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>235</v>
       </c>
@@ -29283,7 +29284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>235</v>
       </c>
@@ -29327,7 +29328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>235</v>
       </c>
@@ -29371,7 +29372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>235</v>
       </c>
@@ -29415,7 +29416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>235</v>
       </c>
@@ -29459,7 +29460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>235</v>
       </c>
@@ -29503,7 +29504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>235</v>
       </c>
@@ -29547,7 +29548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>235</v>
       </c>
@@ -29591,7 +29592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>235</v>
       </c>
@@ -29635,7 +29636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>235</v>
       </c>
@@ -29679,7 +29680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>235</v>
       </c>
@@ -29723,7 +29724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>235</v>
       </c>
@@ -29767,7 +29768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>235</v>
       </c>
@@ -29811,7 +29812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>241</v>
       </c>
@@ -29855,7 +29856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>241</v>
       </c>
@@ -29899,7 +29900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>241</v>
       </c>
@@ -29943,7 +29944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>241</v>
       </c>
@@ -29987,7 +29988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>241</v>
       </c>
@@ -30031,7 +30032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>241</v>
       </c>
@@ -30075,7 +30076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>241</v>
       </c>
@@ -30119,7 +30120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>241</v>
       </c>
@@ -30163,7 +30164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>241</v>
       </c>
@@ -30207,7 +30208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>241</v>
       </c>
@@ -30251,7 +30252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>241</v>
       </c>
@@ -30295,7 +30296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>241</v>
       </c>
@@ -30339,7 +30340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>241</v>
       </c>
@@ -30383,7 +30384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>241</v>
       </c>
@@ -30427,7 +30428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>241</v>
       </c>
@@ -30471,7 +30472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>241</v>
       </c>
@@ -30515,7 +30516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>241</v>
       </c>
@@ -30559,7 +30560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>241</v>
       </c>
@@ -30603,7 +30604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>241</v>
       </c>
@@ -30647,7 +30648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>241</v>
       </c>
@@ -30691,7 +30692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>241</v>
       </c>
@@ -30735,7 +30736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>245</v>
       </c>
@@ -30779,7 +30780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>245</v>
       </c>
@@ -30823,7 +30824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>245</v>
       </c>
@@ -30867,7 +30868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>245</v>
       </c>
@@ -30911,7 +30912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>245</v>
       </c>
@@ -30955,7 +30956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>245</v>
       </c>
@@ -30999,7 +31000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>245</v>
       </c>
@@ -31043,7 +31044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>245</v>
       </c>
@@ -31087,7 +31088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>245</v>
       </c>
@@ -31131,7 +31132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>245</v>
       </c>
@@ -31175,7 +31176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>245</v>
       </c>
@@ -31219,7 +31220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>245</v>
       </c>
@@ -31263,7 +31264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>247</v>
       </c>
@@ -31307,7 +31308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>247</v>
       </c>
@@ -31351,7 +31352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>247</v>
       </c>
@@ -31395,7 +31396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>247</v>
       </c>
@@ -31439,7 +31440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>247</v>
       </c>
@@ -31483,7 +31484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>247</v>
       </c>
@@ -31527,7 +31528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>247</v>
       </c>
@@ -31571,7 +31572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>247</v>
       </c>
@@ -31615,7 +31616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>247</v>
       </c>
@@ -31659,7 +31660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>247</v>
       </c>
@@ -31716,33 +31717,33 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>253</v>
       </c>
@@ -31752,7 +31753,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -31760,7 +31761,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -31768,7 +31769,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -31776,7 +31777,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -31784,7 +31785,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -31792,7 +31793,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -31800,7 +31801,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -31808,7 +31809,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -31816,7 +31817,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -31824,7 +31825,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -31832,7 +31833,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -31840,7 +31841,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>11</v>
       </c>
@@ -31848,7 +31849,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>266</v>
       </c>
@@ -31856,7 +31857,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>268</v>
       </c>
@@ -31870,7 +31871,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>272</v>
       </c>
@@ -31882,7 +31883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -31896,7 +31897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -31910,7 +31911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -31924,7 +31925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>277</v>
       </c>
@@ -31938,7 +31939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -31952,7 +31953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>280</v>
       </c>
@@ -31966,7 +31967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -31980,7 +31981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>283</v>
       </c>
@@ -31994,7 +31995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
